--- a/信分小组任务分配表.xlsx
+++ b/信分小组任务分配表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyacinth/Desktop/information_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4370D438-6E85-AF45-8412-D15B7C59A315}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220F0DB9-F23E-A048-A3C1-8B478FF997A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="2080" windowWidth="23680" windowHeight="13000" xr2:uid="{C7CFFBC5-D4EE-B847-B016-A0495E7D2C37}"/>
+    <workbookView xWindow="8260" yWindow="980" windowWidth="23680" windowHeight="13000" xr2:uid="{C7CFFBC5-D4EE-B847-B016-A0495E7D2C37}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="用例分配表" sheetId="2" r:id="rId1"/>
+    <sheet name="主要任务分配表" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>基本公共任务职责分配</t>
   </si>
@@ -178,6 +179,138 @@
   </si>
   <si>
     <t>谢霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看菜品供应信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看本人线上订餐统计信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看指定 菜品 的评价信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将指定菜品加入购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览本人订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览/查询订单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消无法供应的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作废订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建菜品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑指定菜品信息 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览/查询菜品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">删除菜品 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成指定餐次的菜品供应清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑指定餐次的菜品供应清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布指定餐次的菜品供应清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看各餐次的菜品供应清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看订单及菜品评价统计信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配原则：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">普通用例 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就扩展分配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,8 +341,24 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,8 +389,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -431,13 +586,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -555,50 +787,212 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -609,6 +1003,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>397933</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FC37D2-5C86-A945-9988-2764F063B4B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7493000" y="16933"/>
+          <a:ext cx="5126567" cy="6604000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -907,10 +1350,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563F223B-F094-1F4A-A0A9-5B3D71CA8581}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="93">
+        <v>1</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="95">
+        <v>2</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="95">
+        <v>3</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="95">
+        <v>4</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="60">
+        <v>1</v>
+      </c>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61">
+        <v>6</v>
+      </c>
+      <c r="G5" s="62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="95">
+        <v>5</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="61">
+        <v>19</v>
+      </c>
+      <c r="G6" s="62">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="93">
+        <v>6</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="95">
+        <v>7</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="93">
+        <v>8</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="65">
+        <v>2</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66">
+        <v>8</v>
+      </c>
+      <c r="G9" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="95">
+        <v>9</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69">
+        <v>10</v>
+      </c>
+      <c r="G10" s="70">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="93">
+        <v>10</v>
+      </c>
+      <c r="B11" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="95">
+        <v>11</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="93">
+        <v>12</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="74">
+        <v>3</v>
+      </c>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75">
+        <v>1</v>
+      </c>
+      <c r="G13" s="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="93">
+        <v>13</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78">
+        <v>23</v>
+      </c>
+      <c r="G14" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="95">
+        <v>14</v>
+      </c>
+      <c r="B15" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="95">
+        <v>15</v>
+      </c>
+      <c r="B16" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="95">
+        <v>16</v>
+      </c>
+      <c r="B17" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="83">
+        <v>4</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84">
+        <v>12</v>
+      </c>
+      <c r="G17" s="85">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="95">
+        <v>17</v>
+      </c>
+      <c r="B18" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="87">
+        <v>13</v>
+      </c>
+      <c r="G18" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="95">
+        <v>18</v>
+      </c>
+      <c r="B19" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="93">
+        <v>19</v>
+      </c>
+      <c r="B20" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="95">
+        <v>20</v>
+      </c>
+      <c r="B21" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="95">
+        <v>21</v>
+      </c>
+      <c r="B22" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="95">
+        <v>22</v>
+      </c>
+      <c r="B23" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="93">
+        <v>23</v>
+      </c>
+      <c r="B24" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="52"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="97">
+        <v>24</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D13:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F5:G20">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B2FBAE-1476-BF44-8C6C-DA758B940623}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -927,10 +1778,10 @@
     </row>
     <row r="2" spans="1:8" ht="17" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="48"/>
       <c r="E2" t="s">
         <v>10</v>
       </c>
@@ -954,7 +1805,7 @@
       <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="46" t="s">
         <v>35</v>
       </c>
     </row>
@@ -971,7 +1822,7 @@
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="49" t="s">
         <v>38</v>
       </c>
     </row>
@@ -989,10 +1840,10 @@
       <c r="F5" s="19">
         <v>3</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="39">
         <v>43996</v>
       </c>
-      <c r="H5" s="49"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="17" thickBot="1">
       <c r="A6" s="11" t="s">
@@ -1006,7 +1857,7 @@
       <c r="F6" s="21">
         <v>7</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="39">
         <v>43997</v>
       </c>
       <c r="H6" s="51"/>
@@ -1024,7 +1875,7 @@
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="49" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1042,10 +1893,10 @@
       <c r="F8" s="25">
         <v>2</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="40">
         <v>44003</v>
       </c>
-      <c r="H8" s="49"/>
+      <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="11" t="s">
@@ -1059,10 +1910,10 @@
       <c r="F9" s="25">
         <v>2</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="40">
         <v>44004</v>
       </c>
-      <c r="H9" s="49"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="10" t="s">
@@ -1078,10 +1929,10 @@
       <c r="F10" s="25">
         <v>1</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="40">
         <v>44005</v>
       </c>
-      <c r="H10" s="49"/>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:8" ht="17" thickBot="1">
       <c r="A11" s="10" t="s">
@@ -1097,7 +1948,7 @@
       <c r="F11" s="27">
         <v>5</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="41">
         <v>43976</v>
       </c>
       <c r="H11" s="51"/>
@@ -1115,7 +1966,7 @@
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="49" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1133,10 +1984,10 @@
       <c r="F13" s="31">
         <v>3</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="42">
         <v>43982</v>
       </c>
-      <c r="H13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" ht="17" thickBot="1">
       <c r="A14" s="11" t="s">
@@ -1150,7 +2001,7 @@
       <c r="F14" s="33">
         <v>7</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="43">
         <v>43982</v>
       </c>
       <c r="H14" s="51"/>
@@ -1168,7 +2019,7 @@
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="49" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1186,10 +2037,10 @@
       <c r="F16" s="4">
         <v>3</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="44">
         <v>44003</v>
       </c>
-      <c r="H16" s="49"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
@@ -1203,10 +2054,10 @@
       <c r="F17" s="4">
         <v>2</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="44">
         <v>44003</v>
       </c>
-      <c r="H17" s="49"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="1:8" ht="17" thickBot="1">
       <c r="A18" s="9" t="s">
@@ -1222,7 +2073,7 @@
       <c r="F18" s="38">
         <v>5</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="45">
         <v>43989</v>
       </c>
       <c r="H18" s="51"/>
